--- a/ТВИМС/ЛР1 Крит Пирсона.xlsx
+++ b/ТВИМС/ЛР1 Крит Пирсона.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD269B1-55FB-4DB3-BC8F-54FFC2E06DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CDDC99-1081-4EF7-AF61-62D5D575AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
-  <si>
-    <t>Вариант 20</t>
-  </si>
   <si>
     <t>Кол-во интервалов по формуле Стерджесса k</t>
   </si>
@@ -132,6 +129,9 @@
   <si>
     <t xml:space="preserve">X2Табл = </t>
   </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,14 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -337,17 +346,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +365,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1406,18 +1415,18 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>150495</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1431,8 +1440,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7452360" y="6736080"/>
-              <a:ext cx="2788920" cy="1546860"/>
+              <a:off x="7339965" y="6962775"/>
+              <a:ext cx="2707005" cy="1581150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2065,16 +2074,22 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7452360" y="6736080"/>
-              <a:ext cx="2788920" cy="1546860"/>
+              <a:off x="7339965" y="6962775"/>
+              <a:ext cx="2707005" cy="1581150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2648,30 +2663,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -2739,7 +2756,7 @@
         <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="13">
         <v>100</v>
@@ -2777,7 +2794,7 @@
         <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="13">
         <f>1+LOG(N3,2)</f>
@@ -2816,7 +2833,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="13">
         <f>ROUND(N4,0)</f>
@@ -2855,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="13">
         <f>D12-B12</f>
@@ -2894,7 +2911,7 @@
         <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="13">
         <f>N6/N5</f>
@@ -2933,7 +2950,7 @@
         <v>28</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="13">
         <f>_xlfn.CEILING.MATH(N7,0.1)</f>
@@ -3005,7 +3022,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -3041,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" s="15">
         <f>SUMPRODUCT(C16:C23,D16:D23)/100</f>
@@ -3049,28 +3066,28 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="26">
         <f>MIN(A2:J11)</f>
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="C12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="26">
         <f>MAX(A2:J11)</f>
         <v>46</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N13" s="14">
         <f>SUMPRODUCT(C16:C23,C16:C23,D16:D23)/100-N11*N11</f>
@@ -3079,10 +3096,10 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N14" s="14">
         <f>N13*100/99</f>
@@ -3091,26 +3108,26 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="G15" s="11"/>
       <c r="M15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="15">
         <f>SQRT(N14)</f>
@@ -3342,40 +3359,40 @@
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="H28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <f>-1E+50</f>
         <v>-1.0000000000000001E+50</v>
       </c>
@@ -3387,27 +3404,27 @@
         <f>D16</f>
         <v>7</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <f>_xlfn.NORM.DIST(B29,$N$11,$N$15,TRUE)</f>
         <v>5.6957496366613826E-2</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <f>$N$3*D29</f>
         <v>5.6957496366613825</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <f>C29-$N$3*D29</f>
         <v>1.3042503633386175</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <f>POWER(F29,2)</f>
         <v>1.7010690102689159</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <f>G29/E29</f>
         <v>0.29865586073513117</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="17">
         <f>(POWER(C29,2))/E29</f>
         <v>8.6029062240737488</v>
       </c>
@@ -3425,27 +3442,27 @@
         <f t="shared" ref="C30:C34" si="7">D17</f>
         <v>8</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <f>_xlfn.NORM.DIST(B30,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A30,$N$11,$N$15,TRUE)</f>
         <v>9.1063007059949019E-2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <f t="shared" ref="E30:E35" si="8">$N$3*D30</f>
         <v>9.1063007059949026</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <f t="shared" ref="F30:F35" si="9">C30-$N$3*D30</f>
         <v>-1.1063007059949026</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <f t="shared" ref="G30:G35" si="10">POWER(F30,2)</f>
         <v>1.2239012520848198</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <f t="shared" ref="H30:H35" si="11">G30/E30</f>
         <v>0.13440158540768321</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <f t="shared" ref="I30:I35" si="12">(POWER(C30,2))/E30</f>
         <v>7.0281008794127811</v>
       </c>
@@ -3463,27 +3480,27 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <f t="shared" ref="D31:D34" si="13">_xlfn.NORM.DIST(B31,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A31,$N$11,$N$15,TRUE)</f>
         <v>0.15732632694108237</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <f t="shared" si="8"/>
         <v>15.732632694108236</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <f t="shared" si="9"/>
         <v>-0.73263269410823639</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="17">
         <f t="shared" si="10"/>
         <v>0.53675066447629272</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <f t="shared" si="11"/>
         <v>3.4117027640091169E-2</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="17">
         <f t="shared" si="12"/>
         <v>14.301484333531855</v>
       </c>
@@ -3501,27 +3518,27 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <f t="shared" si="13"/>
         <v>0.20534109883489904</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <f t="shared" si="8"/>
         <v>20.534109883489904</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <f t="shared" si="9"/>
         <v>3.4658901165100957</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <f t="shared" si="10"/>
         <v>12.012394299722365</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <f t="shared" si="11"/>
         <v>0.58499707890336761</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="17">
         <f t="shared" si="12"/>
         <v>28.050887195413463</v>
       </c>
@@ -3539,27 +3556,27 @@
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <f t="shared" si="13"/>
         <v>0.20248270325906714</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <f t="shared" si="8"/>
         <v>20.248270325906713</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <f t="shared" si="9"/>
         <v>-2.2482703259067129</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <f t="shared" si="10"/>
         <v>5.0547194583526771</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <f t="shared" si="11"/>
         <v>0.24963709872469456</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="17">
         <f t="shared" si="12"/>
         <v>16.001366772817981</v>
       </c>
@@ -3577,27 +3594,27 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <f t="shared" si="13"/>
         <v>0.15084688889058639</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f t="shared" si="8"/>
         <v>15.08468888905864</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <f t="shared" si="9"/>
         <v>-5.0846888890586399</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f t="shared" si="10"/>
         <v>25.854061098516386</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <f t="shared" si="11"/>
         <v>1.7139273662626933</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f t="shared" si="12"/>
         <v>6.6292384772040531</v>
       </c>
@@ -3615,103 +3632,103 @@
         <f>D22+1</f>
         <v>14</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="17">
         <f>_xlfn.NORM.DIST(B35,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A35,$N$11,$N$15,TRUE)</f>
         <v>0.13598247864780222</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <f t="shared" si="8"/>
         <v>13.598247864780221</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <f t="shared" si="9"/>
         <v>0.40175213521977859</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <f t="shared" si="10"/>
         <v>0.16140477815365126</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <f t="shared" si="11"/>
         <v>1.186952758610125E-2</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="17">
         <f t="shared" si="12"/>
         <v>14.41362166280588</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24">
+      <c r="A38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22">
         <f>SUM(C29:C36)</f>
         <v>96</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="21">
         <f>SUM(D29:D36)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <f>SUM(E29:E36)</f>
         <v>100</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="23">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="21">
         <f>SUM(H29:H35)</f>
         <v>3.0276055452597626</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="23">
         <f>SUM(I29:I36)</f>
         <v>95.027605545259775</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="21">
         <f>COUNT(C29:C35)-2-1</f>
         <v>4</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="23">
+      <c r="F39" s="21"/>
+      <c r="G39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="21">
         <f>_xlfn.CHISQ.INV.RT(0.05,E39)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="I39" s="26"/>
+      <c r="I39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/ТВИМС/ЛР1 Крит Пирсона.xlsx
+++ b/ТВИМС/ЛР1 Крит Пирсона.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CDDC99-1081-4EF7-AF61-62D5D575AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4584B565-12DD-410D-AF7C-F2573B2907B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,25 +112,25 @@
     <t>(ninpi)^2/npi</t>
   </si>
   <si>
-    <t>Исходные данные</t>
-  </si>
-  <si>
     <t>Суммы</t>
   </si>
   <si>
     <t>ni-n*pi</t>
   </si>
   <si>
-    <t xml:space="preserve">X2Расч = </t>
-  </si>
-  <si>
     <t xml:space="preserve">k-r-1 = </t>
   </si>
   <si>
-    <t xml:space="preserve">X2Табл = </t>
-  </si>
-  <si>
     <t>Вариант 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2Расч= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2Табл= </t>
+  </si>
+  <si>
+    <t>F(x)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +202,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,12 +242,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,8 +275,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -292,7 +321,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -301,10 +330,186 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -315,9 +520,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -327,46 +530,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1412,989 +1670,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>158115</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7339965" y="6962775"/>
-              <a:ext cx="2707005" cy="1581150"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="ru-RU" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <m:rPr>
-                          <m:brk m:alnAt="23"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>=1</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑘</m:t>
-                      </m:r>
-                    </m:sup>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑛</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑝</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑛</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:nary>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100"/>
-                <a:t>ячейка</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                <a:t>E38</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSubSup>
-                      <m:sSubSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>расч</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSubSup>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:sSup>
-                              <m:sSupPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSupPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>(</m:t>
-                                </m:r>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                      <m:t>𝑛</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                      <m:t>𝑖</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t> − </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="dk1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑛</m:t>
-                                </m:r>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑝</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="dk1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑖</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t> )</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sup>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>2</m:t>
-                                </m:r>
-                              </m:sup>
-                            </m:sSup>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑝</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐻</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>38</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:nary>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="ru-RU" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <m:rPr>
-                          <m:brk m:alnAt="23"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>=1</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑘</m:t>
-                      </m:r>
-                    </m:sup>
-                    <m:e>
-                      <m:f>
-                        <m:fPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="ru-RU" sz="1100" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:fPr>
-                        <m:num>
-                          <m:sSup>
-                            <m:sSupPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="ru-RU" sz="1100" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSupPr>
-                            <m:e>
-                              <m:sSub>
-                                <m:sSubPr>
-                                  <m:ctrlPr>
-                                    <a:rPr lang="ru-RU" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                  </m:ctrlPr>
-                                </m:sSubPr>
-                                <m:e>
-                                  <m:r>
-                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                    <m:t>𝑛</m:t>
-                                  </m:r>
-                                </m:e>
-                                <m:sub>
-                                  <m:r>
-                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                    <m:t>𝑖</m:t>
-                                  </m:r>
-                                </m:sub>
-                              </m:sSub>
-                            </m:e>
-                            <m:sup>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>2</m:t>
-                              </m:r>
-                            </m:sup>
-                          </m:sSup>
-                        </m:num>
-                        <m:den>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="dk1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑛</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="dk1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="dk1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑝</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="dk1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑖</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                        </m:den>
-                      </m:f>
-                    </m:e>
-                  </m:nary>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>= </m:t>
-                  </m:r>
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="ru-RU" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑋</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>расч</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t> +</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                <a:t> n = I38 = H38 + N3</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7339965" y="6962775"/>
-              <a:ext cx="2707005" cy="1581150"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖=1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^𝑘▒〖𝑛𝑝_𝑖=𝑛〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100"/>
-                <a:t>ячейка</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                <a:t>E38</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_расч^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2= ∑_(𝑖=1)^𝑘▒〖〖(𝑛_𝑖  − </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛𝑝_𝑖 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> )〗^2/(𝑛𝑝_𝑖 )=𝐻38〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖=1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〗^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛𝑝_𝑖 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_расч^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t> +</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                <a:t> n = I38 = H38 + N3</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2661,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,57 +1950,55 @@
     <col min="7" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="31">
         <v>36</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="32">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="32">
         <v>40</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="32">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="32">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="32">
         <v>32</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="32">
         <v>24</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="32">
         <v>32</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="32">
         <v>29</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="33">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>26</v>
       </c>
       <c r="B3" s="1">
@@ -2752,10 +2025,10 @@
       <c r="I3" s="1">
         <v>18</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="35">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="13">
@@ -2763,7 +2036,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="34">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -2790,10 +2063,10 @@
       <c r="I4" s="1">
         <v>38</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="35">
         <v>33</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="13">
@@ -2802,7 +2075,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="34">
         <v>34</v>
       </c>
       <c r="B5" s="1">
@@ -2829,10 +2102,10 @@
       <c r="I5" s="1">
         <v>34</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="35">
         <v>19</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="13">
@@ -2841,7 +2114,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="34">
         <v>24</v>
       </c>
       <c r="B6" s="1">
@@ -2868,10 +2141,10 @@
       <c r="I6" s="1">
         <v>40</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="35">
         <v>40</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="13">
@@ -2880,7 +2153,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="34">
         <v>29</v>
       </c>
       <c r="B7" s="1">
@@ -2907,10 +2180,10 @@
       <c r="I7" s="1">
         <v>31</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="35">
         <v>28</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="13">
@@ -2919,7 +2192,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="34">
         <v>17</v>
       </c>
       <c r="B8" s="1">
@@ -2946,10 +2219,10 @@
       <c r="I8" s="1">
         <v>26</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="35">
         <v>28</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="13">
@@ -2958,7 +2231,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="34">
         <v>37</v>
       </c>
       <c r="B9" s="1">
@@ -2985,13 +2258,13 @@
       <c r="I9" s="1">
         <v>23</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="35">
         <v>42</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="34">
         <v>22</v>
       </c>
       <c r="B10" s="1">
@@ -3018,46 +2291,46 @@
       <c r="I10" s="1">
         <v>25</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="35">
         <v>30</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36">
         <v>29</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="37">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="37">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="37">
         <v>30</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="37">
         <v>26</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="37">
         <v>26</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="37">
         <v>31</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="37">
         <v>26</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="37">
         <v>36</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="38">
         <v>37</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="15">
@@ -3066,67 +2339,71 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="10">
         <f>MIN(A2:J11)</f>
         <v>12</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="10">
         <f>MAX(A2:J11)</f>
         <v>46</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="16">
         <f>SUMPRODUCT(C16:C23,C16:C23,D16:D23)/100-N11*N11</f>
         <v>63.744275000000016</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="M14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="16">
         <f>N13*100/99</f>
         <v>64.388156565656587</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="15">
@@ -3135,600 +2412,616 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="39">
         <f>B12</f>
         <v>12</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="40">
         <f>A16+$N$8</f>
         <v>16.3</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="41">
         <f>(A16+B16)/2</f>
         <v>14.15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="42">
         <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;A16,$A$2:$J$11,"&lt;"&amp;B16)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="43">
         <f>D16/$N$3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="44">
         <f>E16/$N$8</f>
         <v>1.6279069767441864E-2</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
         <f>A16+$N$8</f>
         <v>16.3</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="17">
         <f>A17+$N$8</f>
         <v>20.6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <f t="shared" ref="C17:C23" si="0">(A17+B17)/2</f>
         <v>18.450000000000003</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="18">
         <f t="shared" ref="D17:D23" si="1">COUNTIFS($A$2:$J$11,"&gt;="&amp;A17,$A$2:$J$11,"&lt;"&amp;B17)</f>
         <v>8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <f t="shared" ref="E17:E23" si="2">D17/$N$3</f>
         <v>0.08</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="46">
         <f t="shared" ref="F17:F23" si="3">E17/$N$8</f>
         <v>1.8604651162790697E-2</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
         <f>A17+$N$8</f>
         <v>20.6</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="17">
         <f>A18+$N$8</f>
         <v>24.900000000000002</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>22.75</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="46">
         <f t="shared" si="3"/>
         <v>3.4883720930232558E-2</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="R18" s="67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
         <f t="shared" ref="A19:A23" si="4">A18+$N$8</f>
         <v>24.900000000000002</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="17">
         <f t="shared" ref="B19:B23" si="5">A19+$N$8</f>
         <v>29.200000000000003</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>27.050000000000004</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="18">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="46">
         <f t="shared" si="3"/>
         <v>5.5813953488372092E-2</v>
       </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="R19">
+        <f>E16</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
         <f t="shared" si="4"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="17">
         <f t="shared" si="5"/>
         <v>33.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>31.35</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="46">
         <f t="shared" si="3"/>
         <v>4.1860465116279069E-2</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="R20">
+        <f>E17+R19</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
         <f t="shared" si="4"/>
         <v>33.5</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="17">
         <f t="shared" si="5"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>35.65</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="46">
         <f t="shared" si="3"/>
         <v>2.3255813953488375E-2</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="R21">
+        <f>E18+R20</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
         <f t="shared" si="4"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="17">
         <f t="shared" si="5"/>
         <v>42.099999999999994</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>39.949999999999996</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="46">
         <f t="shared" si="3"/>
         <v>3.0232558139534887E-2</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="R22">
+        <f t="shared" ref="R22:R25" si="6">E19+R21</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
         <f t="shared" si="4"/>
         <v>42.099999999999994</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="48">
         <f t="shared" si="5"/>
         <v>46.399999999999991</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="49">
         <f t="shared" si="0"/>
         <v>44.249999999999993</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="51">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="52">
         <f t="shared" si="3"/>
         <v>1.1627906976744188E-2</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="19">
         <f>SUM(D16:D23)</f>
         <v>100</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f>E23+R25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="F28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <f>-1E+50</f>
-        <v>-1.0000000000000001E+50</v>
-      </c>
-      <c r="B29" s="7">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <f>-10000000000</f>
+        <v>-10000000000</v>
+      </c>
+      <c r="B29" s="43">
         <f>B16</f>
         <v>16.3</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="64">
         <f>D16</f>
         <v>7</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="57">
         <f>_xlfn.NORM.DIST(B29,$N$11,$N$15,TRUE)</f>
         <v>5.6957496366613826E-2</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="57">
         <f>$N$3*D29</f>
         <v>5.6957496366613825</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="57">
         <f>C29-$N$3*D29</f>
         <v>1.3042503633386175</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="57">
         <f>POWER(F29,2)</f>
         <v>1.7010690102689159</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="57">
         <f>G29/E29</f>
         <v>0.29865586073513117</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="58">
         <f>(POWER(C29,2))/E29</f>
         <v>8.6029062240737488</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <f t="shared" ref="A30:B35" si="6">A17</f>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
+        <f>A17</f>
         <v>16.3</v>
       </c>
-      <c r="B30" s="7">
-        <f t="shared" si="6"/>
+      <c r="B30" s="3">
+        <f t="shared" ref="A30:B35" si="7">B17</f>
         <v>20.6</v>
       </c>
-      <c r="C30" s="9">
-        <f t="shared" ref="C30:C34" si="7">D17</f>
+      <c r="C30" s="65">
+        <f t="shared" ref="C30:C34" si="8">D17</f>
         <v>8</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="6">
         <f>_xlfn.NORM.DIST(B30,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A30,$N$11,$N$15,TRUE)</f>
         <v>9.1063007059949019E-2</v>
       </c>
-      <c r="E30" s="17">
-        <f t="shared" ref="E30:E35" si="8">$N$3*D30</f>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30:E35" si="9">$N$3*D30</f>
         <v>9.1063007059949026</v>
       </c>
-      <c r="F30" s="17">
-        <f t="shared" ref="F30:F35" si="9">C30-$N$3*D30</f>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F35" si="10">C30-$N$3*D30</f>
         <v>-1.1063007059949026</v>
       </c>
-      <c r="G30" s="17">
-        <f t="shared" ref="G30:G35" si="10">POWER(F30,2)</f>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30:G35" si="11">POWER(F30,2)</f>
         <v>1.2239012520848198</v>
       </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30:H35" si="11">G30/E30</f>
+      <c r="H30" s="6">
+        <f t="shared" ref="H30:H35" si="12">G30/E30</f>
         <v>0.13440158540768321</v>
       </c>
-      <c r="I30" s="17">
-        <f t="shared" ref="I30:I35" si="12">(POWER(C30,2))/E30</f>
+      <c r="I30" s="60">
+        <f t="shared" ref="I30:I35" si="13">(POWER(C30,2))/E30</f>
         <v>7.0281008794127811</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <f t="shared" si="6"/>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="59">
+        <f t="shared" si="7"/>
         <v>20.6</v>
       </c>
-      <c r="B31" s="7">
-        <f t="shared" si="6"/>
+      <c r="B31" s="3">
+        <f t="shared" si="7"/>
         <v>24.900000000000002</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="65">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" ref="D31:D34" si="14">_xlfn.NORM.DIST(B31,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A31,$N$11,$N$15,TRUE)</f>
+        <v>0.15732632694108237</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="9"/>
+        <v>15.732632694108236</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.73263269410823639</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53675066447629272</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="12"/>
+        <v>3.4117027640091169E-2</v>
+      </c>
+      <c r="I31" s="60">
+        <f t="shared" si="13"/>
+        <v>14.301484333531855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="59">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="D31" s="17">
-        <f t="shared" ref="D31:D34" si="13">_xlfn.NORM.DIST(B31,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A31,$N$11,$N$15,TRUE)</f>
-        <v>0.15732632694108237</v>
-      </c>
-      <c r="E31" s="17">
+        <v>24.900000000000002</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="7"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="C32" s="65">
         <f t="shared" si="8"/>
-        <v>15.732632694108236</v>
-      </c>
-      <c r="F31" s="17">
+        <v>24</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.20534109883489904</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="9"/>
-        <v>-0.73263269410823639</v>
-      </c>
-      <c r="G31" s="17">
+        <v>20.534109883489904</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="10"/>
-        <v>0.53675066447629272</v>
-      </c>
-      <c r="H31" s="17">
+        <v>3.4658901165100957</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="11"/>
-        <v>3.4117027640091169E-2</v>
-      </c>
-      <c r="I31" s="17">
+        <v>12.012394299722365</v>
+      </c>
+      <c r="H32" s="6">
         <f t="shared" si="12"/>
-        <v>14.301484333531855</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <f t="shared" si="6"/>
-        <v>24.900000000000002</v>
-      </c>
-      <c r="B32" s="7">
-        <f t="shared" si="6"/>
+        <v>0.58499707890336761</v>
+      </c>
+      <c r="I32" s="60">
+        <f t="shared" si="13"/>
+        <v>28.050887195413463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <f t="shared" si="7"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="C32" s="9">
+      <c r="B33" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="D32" s="17">
+        <v>33.5</v>
+      </c>
+      <c r="C33" s="65">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="14"/>
+        <v>0.20248270325906714</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="9"/>
+        <v>20.248270325906713</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="10"/>
+        <v>-2.2482703259067129</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="11"/>
+        <v>5.0547194583526771</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="12"/>
+        <v>0.24963709872469456</v>
+      </c>
+      <c r="I33" s="60">
         <f t="shared" si="13"/>
-        <v>0.20534109883489904</v>
-      </c>
-      <c r="E32" s="17">
+        <v>16.001366772817981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="59">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="7"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C34" s="65">
         <f t="shared" si="8"/>
-        <v>20.534109883489904</v>
-      </c>
-      <c r="F32" s="17">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="14"/>
+        <v>0.15084688889058639</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="9"/>
-        <v>3.4658901165100957</v>
-      </c>
-      <c r="G32" s="17">
+        <v>15.08468888905864</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="10"/>
-        <v>12.012394299722365</v>
-      </c>
-      <c r="H32" s="17">
+        <v>-5.0846888890586399</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="11"/>
-        <v>0.58499707890336761</v>
-      </c>
-      <c r="I32" s="17">
+        <v>25.854061098516386</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="12"/>
-        <v>28.050887195413463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <f t="shared" si="6"/>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="B33" s="7">
-        <f t="shared" si="6"/>
-        <v>33.5</v>
-      </c>
-      <c r="C33" s="9">
+        <v>1.7139273662626933</v>
+      </c>
+      <c r="I34" s="60">
+        <f t="shared" si="13"/>
+        <v>6.6292384772040531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="13"/>
-        <v>0.20248270325906714</v>
-      </c>
-      <c r="E33" s="17">
-        <f t="shared" si="8"/>
-        <v>20.248270325906713</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="9"/>
-        <v>-2.2482703259067129</v>
-      </c>
-      <c r="G33" s="17">
-        <f t="shared" si="10"/>
-        <v>5.0547194583526771</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" si="11"/>
-        <v>0.24963709872469456</v>
-      </c>
-      <c r="I33" s="17">
-        <f t="shared" si="12"/>
-        <v>16.001366772817981</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <f t="shared" si="6"/>
-        <v>33.5</v>
-      </c>
-      <c r="B34" s="7">
-        <f t="shared" si="6"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="C34" s="9">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D34" s="17">
-        <f t="shared" si="13"/>
-        <v>0.15084688889058639</v>
-      </c>
-      <c r="E34" s="17">
-        <f t="shared" si="8"/>
-        <v>15.08468888905864</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="9"/>
-        <v>-5.0846888890586399</v>
-      </c>
-      <c r="G34" s="17">
-        <f t="shared" si="10"/>
-        <v>25.854061098516386</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="11"/>
-        <v>1.7139273662626933</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="12"/>
-        <v>6.6292384772040531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <f t="shared" si="6"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="B35" s="7">
-        <f>1E+50</f>
-        <v>1.0000000000000001E+50</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="51">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="C35" s="66">
         <f>D22+1</f>
         <v>14</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="62">
         <f>_xlfn.NORM.DIST(B35,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A35,$N$11,$N$15,TRUE)</f>
         <v>0.13598247864780222</v>
       </c>
-      <c r="E35" s="17">
-        <f t="shared" si="8"/>
+      <c r="E35" s="62">
+        <f t="shared" si="9"/>
         <v>13.598247864780221</v>
       </c>
-      <c r="F35" s="17">
-        <f t="shared" si="9"/>
+      <c r="F35" s="62">
+        <f t="shared" si="10"/>
         <v>0.40175213521977859</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" si="10"/>
+      <c r="G35" s="62">
+        <f t="shared" si="11"/>
         <v>0.16140477815365126</v>
       </c>
-      <c r="H35" s="17">
-        <f t="shared" si="11"/>
+      <c r="H35" s="62">
+        <f t="shared" si="12"/>
         <v>1.186952758610125E-2</v>
       </c>
-      <c r="I35" s="17">
-        <f t="shared" si="12"/>
+      <c r="I35" s="63">
+        <f t="shared" si="13"/>
         <v>14.41362166280588</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22">
-        <f>SUM(C29:C36)</f>
+      <c r="A36" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54">
+        <f>SUM(C29:C35)</f>
         <v>96</v>
       </c>
-      <c r="D38" s="21">
-        <f>SUM(D29:D36)</f>
+      <c r="D36" s="53">
+        <f>SUM(D29:D35)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="21">
-        <f>SUM(E29:E36)</f>
+      <c r="E36" s="53">
+        <f>SUM(E29:E35)</f>
         <v>100</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="21">
+      <c r="F36" s="53"/>
+      <c r="G36" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="53">
         <f>SUM(H29:H35)</f>
         <v>3.0276055452597626</v>
       </c>
-      <c r="I38" s="23">
-        <f>SUM(I29:I36)</f>
+      <c r="I36" s="55">
+        <f>SUM(I29:I35)</f>
         <v>95.027605545259775</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="21">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7">
         <f>COUNT(C29:C35)-2-1</f>
         <v>4</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="21">
-        <f>_xlfn.CHISQ.INV.RT(0.05,E39)</f>
+      <c r="H37" s="7">
+        <f>_xlfn.CHISQ.INV.RT(0.05,E37)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="I39" s="24"/>
+      <c r="I37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/ТВИМС/ЛР1 Крит Пирсона.xlsx
+++ b/ТВИМС/ЛР1 Крит Пирсона.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4584B565-12DD-410D-AF7C-F2573B2907B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1ABCBA-9944-4757-858A-9A00D3D06CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Кол-во интервалов по формуле Стерджесса k</t>
   </si>
@@ -127,10 +127,7 @@
     <t xml:space="preserve">X2Расч= </t>
   </si>
   <si>
-    <t xml:space="preserve">X2Табл= </t>
-  </si>
-  <si>
-    <t>F(x)</t>
+    <t xml:space="preserve">X2Крит= </t>
   </si>
 </sst>
 </file>
@@ -247,18 +244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,6 +278,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -530,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -540,36 +537,28 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -594,23 +583,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,12 +605,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1938,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,51 +1952,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>36</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="28">
         <v>14</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="28">
         <v>40</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="28">
         <v>24</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>30</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="28">
         <v>32</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="28">
         <v>24</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="28">
         <v>32</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="28">
         <v>29</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>26</v>
       </c>
       <c r="B3" s="1">
@@ -2025,18 +2023,18 @@
       <c r="I3" s="1">
         <v>18</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="31">
         <v>33</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+      <c r="A4" s="30">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -2063,19 +2061,19 @@
       <c r="I4" s="1">
         <v>38</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <v>33</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f>1+LOG(N3,2)</f>
         <v>7.6438561897747253</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
+      <c r="A5" s="30">
         <v>34</v>
       </c>
       <c r="B5" s="1">
@@ -2102,19 +2100,19 @@
       <c r="I5" s="1">
         <v>34</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="31">
         <v>19</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <f>ROUND(N4,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="30">
         <v>24</v>
       </c>
       <c r="B6" s="1">
@@ -2141,19 +2139,19 @@
       <c r="I6" s="1">
         <v>40</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="31">
         <v>40</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <f>D12-B12</f>
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+      <c r="A7" s="30">
         <v>29</v>
       </c>
       <c r="B7" s="1">
@@ -2180,19 +2178,19 @@
       <c r="I7" s="1">
         <v>31</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="31">
         <v>28</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <f>N6/N5</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+      <c r="A8" s="30">
         <v>17</v>
       </c>
       <c r="B8" s="1">
@@ -2219,19 +2217,19 @@
       <c r="I8" s="1">
         <v>26</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="31">
         <v>28</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <f>_xlfn.CEILING.MATH(N7,0.1)</f>
         <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="30">
         <v>37</v>
       </c>
       <c r="B9" s="1">
@@ -2258,13 +2256,13 @@
       <c r="I9" s="1">
         <v>23</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="31">
         <v>42</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="A10" s="30">
         <v>22</v>
       </c>
       <c r="B10" s="1">
@@ -2291,158 +2289,158 @@
       <c r="I10" s="1">
         <v>25</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="31">
         <v>30</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>29</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="33">
         <v>16</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="33">
         <v>21</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="33">
         <v>30</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="33">
         <v>26</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>26</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <v>31</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <v>26</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <v>36</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="34">
         <v>37</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="68">
         <f>SUMPRODUCT(C16:C23,D16:D23)/100</f>
         <v>28.984999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f>MIN(A2:J11)</f>
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f>MAX(A2:J11)</f>
         <v>46</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="13">
         <f>SUMPRODUCT(C16:C23,C16:C23,D16:D23)/100-N11*N11</f>
         <v>63.744275000000016</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="M14" s="14" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="M14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="13">
         <f>N13*100/99</f>
         <v>64.388156565656587</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="68">
         <f>SQRT(N14)</f>
         <v>8.0242231129036146</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="35">
         <f>B12</f>
         <v>12</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="36">
         <f>A16+$N$8</f>
         <v>16.3</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="37">
         <f>(A16+B16)/2</f>
         <v>14.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="38">
         <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;A16,$A$2:$J$11,"&lt;"&amp;B16)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="39">
         <f>D16/$N$3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="40">
         <f>E16/$N$8</f>
         <v>1.6279069767441864E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="41">
         <f>A16+$N$8</f>
         <v>16.3</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <f>A17+$N$8</f>
         <v>20.6</v>
       </c>
@@ -2450,7 +2448,7 @@
         <f t="shared" ref="C17:C23" si="0">(A17+B17)/2</f>
         <v>18.450000000000003</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <f t="shared" ref="D17:D23" si="1">COUNTIFS($A$2:$J$11,"&gt;="&amp;A17,$A$2:$J$11,"&lt;"&amp;B17)</f>
         <v>8</v>
       </c>
@@ -2458,17 +2456,17 @@
         <f t="shared" ref="E17:E23" si="2">D17/$N$3</f>
         <v>0.08</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="42">
         <f t="shared" ref="F17:F23" si="3">E17/$N$8</f>
         <v>1.8604651162790697E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="41">
         <f>A17+$N$8</f>
         <v>20.6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <f>A18+$N$8</f>
         <v>24.900000000000002</v>
       </c>
@@ -2476,7 +2474,7 @@
         <f t="shared" si="0"/>
         <v>22.75</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2484,20 +2482,18 @@
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="42">
         <f t="shared" si="3"/>
         <v>3.4883720930232558E-2</v>
       </c>
-      <c r="R18" s="67" t="s">
-        <v>33</v>
-      </c>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="41">
         <f t="shared" ref="A19:A23" si="4">A18+$N$8</f>
         <v>24.900000000000002</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <f t="shared" ref="B19:B23" si="5">A19+$N$8</f>
         <v>29.200000000000003</v>
       </c>
@@ -2505,7 +2501,7 @@
         <f t="shared" si="0"/>
         <v>27.050000000000004</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -2513,21 +2509,20 @@
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="42">
         <f t="shared" si="3"/>
         <v>5.5813953488372092E-2</v>
       </c>
       <c r="R19">
-        <f>E16</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="41">
         <f t="shared" si="4"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <f t="shared" si="5"/>
         <v>33.5</v>
       </c>
@@ -2535,7 +2530,7 @@
         <f t="shared" si="0"/>
         <v>31.35</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2543,21 +2538,22 @@
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="42">
         <f t="shared" si="3"/>
         <v>4.1860465116279069E-2</v>
       </c>
+      <c r="Q20" s="63"/>
       <c r="R20">
-        <f>E17+R19</f>
-        <v>0.15000000000000002</v>
+        <f>R19+E16</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="41">
         <f t="shared" si="4"/>
         <v>33.5</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <f t="shared" si="5"/>
         <v>37.799999999999997</v>
       </c>
@@ -2565,7 +2561,7 @@
         <f t="shared" si="0"/>
         <v>35.65</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -2573,21 +2569,22 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="42">
         <f t="shared" si="3"/>
         <v>2.3255813953488375E-2</v>
       </c>
+      <c r="Q21" s="63"/>
       <c r="R21">
-        <f>E18+R20</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="R21:R28" si="6">R20+E17</f>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="41">
         <f t="shared" si="4"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <f t="shared" si="5"/>
         <v>42.099999999999994</v>
       </c>
@@ -2595,7 +2592,7 @@
         <f t="shared" si="0"/>
         <v>39.949999999999996</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2603,149 +2600,159 @@
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="42">
         <f t="shared" si="3"/>
         <v>3.0232558139534887E-2</v>
       </c>
+      <c r="Q22" s="63"/>
       <c r="R22">
-        <f t="shared" ref="R22:R25" si="6">E19+R21</f>
-        <v>0.54</v>
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="43">
         <f t="shared" si="4"/>
         <v>42.099999999999994</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="44">
         <f t="shared" si="5"/>
         <v>46.399999999999991</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="45">
         <f t="shared" si="0"/>
         <v>44.249999999999993</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="48">
         <f t="shared" si="3"/>
         <v>1.1627906976744188E-2</v>
       </c>
+      <c r="Q23" s="63"/>
       <c r="R23">
         <f t="shared" si="6"/>
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <f>SUM(D16:D23)</f>
         <v>100</v>
       </c>
+      <c r="Q24" s="63"/>
       <c r="R24">
         <f t="shared" si="6"/>
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="63"/>
       <c r="R25">
         <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="63"/>
+      <c r="R26">
+        <f t="shared" si="6"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R26">
-        <f>E23+R25</f>
+    <row r="27" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="Q27" s="63"/>
+      <c r="R27">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
     <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+      <c r="A29" s="49">
         <f>-10000000000</f>
         <v>-10000000000</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="39">
         <f>B16</f>
         <v>16.3</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="57">
         <f>D16</f>
         <v>7</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="50">
         <f>_xlfn.NORM.DIST(B29,$N$11,$N$15,TRUE)</f>
         <v>5.6957496366613826E-2</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="50">
         <f>$N$3*D29</f>
         <v>5.6957496366613825</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="50">
         <f>C29-$N$3*D29</f>
         <v>1.3042503633386175</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="50">
         <f>POWER(F29,2)</f>
         <v>1.7010690102689159</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="50">
         <f>G29/E29</f>
         <v>0.29865586073513117</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="51">
         <f>(POWER(C29,2))/E29</f>
         <v>8.6029062240737488</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="52">
         <f>A17</f>
         <v>16.3</v>
       </c>
@@ -2753,7 +2760,7 @@
         <f t="shared" ref="A30:B35" si="7">B17</f>
         <v>20.6</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="58">
         <f t="shared" ref="C30:C34" si="8">D17</f>
         <v>8</v>
       </c>
@@ -2777,13 +2784,13 @@
         <f t="shared" ref="H30:H35" si="12">G30/E30</f>
         <v>0.13440158540768321</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="53">
         <f t="shared" ref="I30:I35" si="13">(POWER(C30,2))/E30</f>
         <v>7.0281008794127811</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="59">
+      <c r="A31" s="52">
         <f t="shared" si="7"/>
         <v>20.6</v>
       </c>
@@ -2791,7 +2798,7 @@
         <f t="shared" si="7"/>
         <v>24.900000000000002</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="58">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -2815,13 +2822,13 @@
         <f t="shared" si="12"/>
         <v>3.4117027640091169E-2</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="53">
         <f t="shared" si="13"/>
         <v>14.301484333531855</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="52">
         <f t="shared" si="7"/>
         <v>24.900000000000002</v>
       </c>
@@ -2829,7 +2836,7 @@
         <f t="shared" si="7"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="58">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
@@ -2853,13 +2860,13 @@
         <f t="shared" si="12"/>
         <v>0.58499707890336761</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="53">
         <f t="shared" si="13"/>
         <v>28.050887195413463</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="59">
+      <c r="A33" s="52">
         <f t="shared" si="7"/>
         <v>29.200000000000003</v>
       </c>
@@ -2867,7 +2874,7 @@
         <f t="shared" si="7"/>
         <v>33.5</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="58">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
@@ -2891,13 +2898,13 @@
         <f t="shared" si="12"/>
         <v>0.24963709872469456</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="53">
         <f t="shared" si="13"/>
         <v>16.001366772817981</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
+      <c r="A34" s="52">
         <f t="shared" si="7"/>
         <v>33.5</v>
       </c>
@@ -2905,7 +2912,7 @@
         <f t="shared" si="7"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="58">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -2929,99 +2936,99 @@
         <f t="shared" si="12"/>
         <v>1.7139273662626933</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="53">
         <f t="shared" si="13"/>
         <v>6.6292384772040531</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61">
+      <c r="A35" s="54">
         <f t="shared" si="7"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="47">
         <f>10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="C35" s="66">
-        <f>D22+1</f>
-        <v>14</v>
-      </c>
-      <c r="D35" s="62">
+      <c r="C35" s="59">
+        <f>D22+5</f>
+        <v>18</v>
+      </c>
+      <c r="D35" s="55">
         <f>_xlfn.NORM.DIST(B35,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A35,$N$11,$N$15,TRUE)</f>
         <v>0.13598247864780222</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="55">
         <f t="shared" si="9"/>
         <v>13.598247864780221</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="55">
         <f t="shared" si="10"/>
-        <v>0.40175213521977859</v>
-      </c>
-      <c r="G35" s="62">
+        <v>4.4017521352197786</v>
+      </c>
+      <c r="G35" s="55">
         <f t="shared" si="11"/>
-        <v>0.16140477815365126</v>
-      </c>
-      <c r="H35" s="62">
+        <v>19.375421859911881</v>
+      </c>
+      <c r="H35" s="55">
         <f t="shared" si="12"/>
-        <v>1.186952758610125E-2</v>
-      </c>
-      <c r="I35" s="63">
+        <v>1.4248469400307575</v>
+      </c>
+      <c r="I35" s="56">
         <f t="shared" si="13"/>
-        <v>14.41362166280588</v>
+        <v>23.826599075250535</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65">
         <f>SUM(C29:C35)</f>
-        <v>96</v>
-      </c>
-      <c r="D36" s="53">
+        <v>100</v>
+      </c>
+      <c r="D36" s="64">
         <f>SUM(D29:D35)</f>
         <v>1</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="64">
         <f>SUM(E29:E35)</f>
         <v>100</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="64">
         <f>SUM(H29:H35)</f>
-        <v>3.0276055452597626</v>
-      </c>
-      <c r="I36" s="55">
+        <v>4.4405829577044189</v>
+      </c>
+      <c r="I36" s="66">
         <f>SUM(I29:I35)</f>
-        <v>95.027605545259775</v>
+        <v>104.44058295770444</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="67">
         <f>COUNT(C29:C35)-2-1</f>
         <v>4</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="67"/>
+      <c r="G37" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="67">
         <f>_xlfn.CHISQ.INV.RT(0.05,E37)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
